--- a/doc/外部設計/最新版/DB定義書ver1.7.xlsx
+++ b/doc/外部設計/最新版/DB定義書ver1.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B3F06-6E17-4B4E-B750-10EB16038489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E34B3-2E2C-4053-B214-43AC507F1E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -467,37 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>酒の種類識別用（0がビール、1が日本酒、2が焼酎、3が赤ワイン、4が白ワイン、5が梅酒、6がチューハイ、7がハイボール、8がカクテル)</t>
-    <rPh sb="0" eb="1">
-      <t>サケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ニホンシュ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウチュウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ウメシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食事の系統</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
@@ -512,24 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>食事の系統識別用
-（0ががっつり、1がさっぱり、
-2がおつまみ、3が甘いもの）</t>
-    <rPh sb="0" eb="2">
-      <t>ショクジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイトウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シキベツヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -541,44 +492,6 @@
     <t>主食</t>
     <rPh sb="0" eb="2">
       <t>シュショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイン識別用（0が肉、1が魚、2が野菜）</t>
-    <rPh sb="3" eb="5">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サカナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主食識別用（0がパン、1が米、2が麺）</t>
-    <rPh sb="0" eb="2">
-      <t>シュショク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コメ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>メン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,6 +675,99 @@
   </si>
   <si>
     <t>NUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒の種類識別用（0がビール、1が日本酒、2が芋焼酎、3が麦焼酎、4が赤ワイン、5が白ワイン、6がレモンサワー、7が梅酒、8がハイボール、9がカクテル)</t>
+    <rPh sb="0" eb="1">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニホンシュ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウチュウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ムギショウチュウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ウメシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事の系統識別用
+（0ががっつり、1がさっぱり、
+2がおつまみ、3がデザート）</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シキベツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン識別用（0が肉、1が魚、2が野菜、3がその他）</t>
+    <rPh sb="3" eb="5">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主食識別用（0がパン、1が米、2が麺、、3がその他））</t>
+    <rPh sb="0" eb="2">
+      <t>シュショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1263,7 +1269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,6 +1339,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1351,104 +1447,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1908,14 +1911,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1923,14 +1926,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2643,7 +2646,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -2665,7 +2668,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -2688,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -2712,10 +2715,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
@@ -2736,10 +2739,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
@@ -2763,7 +2766,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>34</v>
@@ -2787,7 +2790,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
@@ -2809,7 +2812,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -2833,7 +2836,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>46</v>
@@ -2846,7 +2849,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2999,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FA3544-5926-4BCB-92E7-C084F3924B17}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3054,13 +3057,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3074,288 +3077,288 @@
         <v>6</v>
       </c>
       <c r="E5" s="11">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="24">
         <v>8</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="38" t="s">
-        <v>96</v>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="39">
+      <c r="A11" s="45">
         <v>2</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="43">
         <v>8</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="30">
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="43">
         <v>0</v>
       </c>
-      <c r="J11" s="40" t="s">
-        <v>64</v>
+      <c r="J11" s="49" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="41"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="50"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="50"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="41"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="50"/>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="50"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="41"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="50"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="39">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="43">
         <v>8</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="30">
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="43">
         <v>0</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>67</v>
+      <c r="J17" s="46" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="47"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="47"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="44">
+      <c r="A20" s="31">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="23">
         <v>50</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="45" t="s">
-        <v>94</v>
+      <c r="I20" s="23"/>
+      <c r="J20" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="44">
+      <c r="A21" s="31">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="45"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
+      <c r="A22" s="32">
         <v>6</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L24" t="str">
@@ -3394,6 +3397,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="C11:C16"/>
@@ -3404,16 +3417,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="F11:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3425,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D844010A-97F7-464A-AA69-CC41B85D1C6A}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3439,7 +3442,7 @@
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="45.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
@@ -3480,13 +3483,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3500,118 +3503,118 @@
         <v>6</v>
       </c>
       <c r="E5" s="11">
-        <v>45092</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="24">
         <v>8</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="38" t="s">
-        <v>96</v>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="53">
         <v>8</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="53">
         <v>0</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>73</v>
+      <c r="J11" s="51" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="55"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="56">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -3625,19 +3628,19 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>71</v>
+      <c r="J13" s="39" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="56">
+      <c r="A14" s="38">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -3651,19 +3654,19 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="57" t="s">
-        <v>72</v>
+      <c r="J14" s="39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+      <c r="A15" s="38">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>92</v>
+      <c r="C15" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
@@ -3677,12 +3680,12 @@
         <v>35</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="57" t="s">
-        <v>94</v>
+      <c r="J15" s="39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="56">
+      <c r="A16" s="38">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -3693,25 +3696,25 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="39"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
+      <c r="A17" s="40">
         <v>7</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3802,16 +3805,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/外部設計/最新版/DB定義書ver1.7.xlsx
+++ b/doc/外部設計/最新版/DB定義書ver1.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E34B3-2E2C-4053-B214-43AC507F1E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741CB8B6-B8D6-4FF2-9B46-E1F6B6324C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="102">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -767,6 +767,37 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIETPIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真保存用</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真保存用</t>
+    <rPh sb="0" eb="5">
+      <t>シャシンホゾンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1399,29 +1430,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,28 +1479,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3003,7 +3034,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3143,164 +3174,164 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="45">
+      <c r="A11" s="50">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="45">
         <v>8</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="43">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45">
         <v>0</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="44"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="44"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="50"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="44"/>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="50"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="44"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="44"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="45">
+      <c r="A17" s="50">
         <v>3</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="45">
         <v>8</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="43">
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="45">
         <v>0</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="48"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="48"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
@@ -3336,15 +3367,25 @@
       <c r="A21" s="31">
         <v>5</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="23">
+        <v>200</v>
+      </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
@@ -3397,16 +3438,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F17:F19"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="C11:C16"/>
@@ -3417,6 +3448,16 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F11:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3429,7 +3470,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3569,42 +3610,42 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="59">
+      <c r="A11" s="55">
         <v>2</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="51">
         <v>8</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="53">
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="51">
         <v>0</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="52"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
@@ -3688,18 +3729,28 @@
       <c r="A16" s="38">
         <v>6</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="23">
+        <v>200</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>DIETPIC VARCHAR (200)</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3805,16 +3856,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
